--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -56,6 +58,15 @@
   </si>
   <si>
     <t>Mmin</t>
+  </si>
+  <si>
+    <t>Mean Residence Time</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>RSME</t>
   </si>
 </sst>
 </file>
@@ -76,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -88,16 +99,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,4 +388,89 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>16.916683076088326</v>
+      </c>
+      <c r="B2">
+        <v>94.667456482971417</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>14.685314340434212</v>
+      </c>
+      <c r="B3">
+        <v>113.54615897475064</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>21.220761377231053</v>
+      </c>
+      <c r="B4">
+        <v>141.59746174365515</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>17.60758626458453</v>
+      </c>
+      <c r="B5">
+        <v>116.60369240045907</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.20567984213204368</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.28436979097561765</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.36435530766899443</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -103,11 +103,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -117,6 +121,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +408,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -452,7 +460,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -107,11 +107,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -125,6 +133,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +424,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -460,7 +476,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -115,11 +115,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -141,6 +145,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +432,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -476,7 +484,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -119,11 +119,35 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -149,6 +173,30 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +480,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -484,7 +532,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="47" t="s">
         <v>16</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -143,11 +143,63 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -197,6 +249,58 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="83" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="84" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="85" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="87" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +584,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="97" t="s">
         <v>15</v>
       </c>
     </row>
@@ -528,27 +632,27 @@
   <dimension ref="A1:A4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="99" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.20567984213204368</v>
+        <v>76.890791667160869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.28436979097561765</v>
+        <v>65.257354298525115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.36435530766899443</v>
+        <v>103.97102117152174</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="101">
+  <borders count="141">
     <border>
       <left/>
       <right/>
@@ -195,11 +195,51 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -301,6 +341,46 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="98" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="99" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="100" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="101" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="102" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="103" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="104" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="105" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="106" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="107" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="108" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="113" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="114" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="115" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="116" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="117" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="118" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="119" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="120" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="121" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="122" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="123" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="124" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="125" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="126" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="127" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="128" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="129" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="130" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="131" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="132" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="133" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="134" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="135" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="136" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="137" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +664,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="137" t="s">
         <v>15</v>
       </c>
     </row>
@@ -636,7 +716,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="141">
+  <borders count="357">
     <border>
       <left/>
       <right/>
@@ -235,11 +235,227 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -381,6 +597,222 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="138" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="139" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="140" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="141" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="142" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="143" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="144" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="145" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="146" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="147" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="148" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="149" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="150" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="151" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="152" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="153" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="154" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="156" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="157" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="193" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="194" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="195" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="196" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="197" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="198" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="199" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="200" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="201" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="202" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="203" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="204" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="205" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="206" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="207" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="208" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="209" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="210" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="211" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="212" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="213" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="214" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="215" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="216" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="217" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="218" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="219" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="220" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="221" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="222" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="223" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="224" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="225" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="226" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="227" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="228" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="229" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="230" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="231" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="232" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="233" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="234" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="235" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="236" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="237" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="238" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="239" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="240" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="241" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="242" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="243" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="244" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="245" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="246" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="247" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="248" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="249" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,48 +1091,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19.08984375" customWidth="true"/>
+    <col min="2" max="2" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="353" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="353" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>16.916683076088326</v>
+        <v>16.91668307608813</v>
       </c>
       <c r="B2">
-        <v>94.667456482971417</v>
+        <v>94.667456482970877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>14.685314340434212</v>
+        <v>14.685314340434157</v>
       </c>
       <c r="B3">
-        <v>113.54615897475064</v>
+        <v>113.54615897475036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>21.220761377231053</v>
+        <v>21.220761377230897</v>
       </c>
       <c r="B4">
-        <v>141.59746174365515</v>
+        <v>141.59746174365404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>17.60758626458453</v>
+        <v>17.607586264584395</v>
       </c>
       <c r="B5">
-        <v>116.60369240045907</v>
+        <v>116.60369240045843</v>
       </c>
     </row>
   </sheetData>
@@ -712,17 +1144,17 @@
   <dimension ref="A1:A4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="355" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>76.890791667160869</v>
+        <v>76.89079166716094</v>
       </c>
     </row>
     <row r="3">
@@ -732,7 +1164,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>103.97102117152174</v>
+        <v>103.97102117152183</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="17">
   <si>
     <t>CSTR</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="357">
+  <borders count="405">
     <border>
       <left/>
       <right/>
@@ -451,11 +451,59 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -813,6 +861,54 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1096,10 +1192,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="353" t="s">
+      <c r="B1" s="401" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1148,7 +1244,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="355" t="s">
+      <c r="A1" s="403" t="s">
         <v>16</v>
       </c>
     </row>
